--- a/tables/real_income_index_by_region.xlsx
+++ b/tables/real_income_index_by_region.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DD7D75-FE34-4794-AD30-CD7E41FCECFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
   <si>
     <t>2020 г.</t>
   </si>
@@ -118,23 +117,401 @@
     <t>СКО</t>
   </si>
   <si>
-    <t>янв-дек</t>
-  </si>
-  <si>
-    <t>янв-сен</t>
-  </si>
-  <si>
-    <t>янв-июн</t>
-  </si>
-  <si>
     <t>янв-мар</t>
+  </si>
+  <si>
+    <t>янв-</t>
+  </si>
+  <si>
+    <t>дек</t>
+  </si>
+  <si>
+    <t>мар</t>
+  </si>
+  <si>
+    <t>июн</t>
+  </si>
+  <si>
+    <t>сен</t>
+  </si>
+  <si>
+    <t>104,3</t>
+  </si>
+  <si>
+    <t>101,3</t>
+  </si>
+  <si>
+    <t>103,7</t>
+  </si>
+  <si>
+    <t>104,1</t>
+  </si>
+  <si>
+    <t>107,0</t>
+  </si>
+  <si>
+    <t>104,8</t>
+  </si>
+  <si>
+    <t>103,5</t>
+  </si>
+  <si>
+    <t>102,8</t>
+  </si>
+  <si>
+    <t>98,4</t>
+  </si>
+  <si>
+    <t>94,1</t>
+  </si>
+  <si>
+    <t>96,9</t>
+  </si>
+  <si>
+    <t>98,5</t>
+  </si>
+  <si>
+    <t>102,1</t>
+  </si>
+  <si>
+    <t>102,7</t>
+  </si>
+  <si>
+    <t>109,4</t>
+  </si>
+  <si>
+    <t>104,7</t>
+  </si>
+  <si>
+    <t>105,4</t>
+  </si>
+  <si>
+    <t>106,6</t>
+  </si>
+  <si>
+    <t>101,0</t>
+  </si>
+  <si>
+    <t>98,2</t>
+  </si>
+  <si>
+    <t>97,2</t>
+  </si>
+  <si>
+    <t>96,1</t>
+  </si>
+  <si>
+    <t>99,7</t>
+  </si>
+  <si>
+    <t>106,3</t>
+  </si>
+  <si>
+    <t>107,3</t>
+  </si>
+  <si>
+    <t>107,2</t>
+  </si>
+  <si>
+    <t>107,6</t>
+  </si>
+  <si>
+    <t>98,7</t>
+  </si>
+  <si>
+    <t>102,0</t>
+  </si>
+  <si>
+    <t>103,9</t>
+  </si>
+  <si>
+    <t>109,2</t>
+  </si>
+  <si>
+    <t>108,3</t>
+  </si>
+  <si>
+    <t>102,6</t>
+  </si>
+  <si>
+    <t>100,2</t>
+  </si>
+  <si>
+    <t>99,1</t>
+  </si>
+  <si>
+    <t>94,4</t>
+  </si>
+  <si>
+    <t>94,8</t>
+  </si>
+  <si>
+    <t>109,5</t>
+  </si>
+  <si>
+    <t>104,5</t>
+  </si>
+  <si>
+    <t>107,9</t>
+  </si>
+  <si>
+    <t>106,4</t>
+  </si>
+  <si>
+    <t>106,0</t>
+  </si>
+  <si>
+    <t>105,8</t>
+  </si>
+  <si>
+    <t>98,3</t>
+  </si>
+  <si>
+    <t>105,7</t>
+  </si>
+  <si>
+    <t>105,6</t>
+  </si>
+  <si>
+    <t>105,5</t>
+  </si>
+  <si>
+    <t>103,8</t>
+  </si>
+  <si>
+    <t>100,5</t>
+  </si>
+  <si>
+    <t>97,9</t>
+  </si>
+  <si>
+    <t>107,4</t>
+  </si>
+  <si>
+    <t>108,0</t>
+  </si>
+  <si>
+    <t>104,6</t>
+  </si>
+  <si>
+    <t>101,4</t>
+  </si>
+  <si>
+    <t>101,5</t>
+  </si>
+  <si>
+    <t>99,3</t>
+  </si>
+  <si>
+    <t>101,1</t>
+  </si>
+  <si>
+    <t>96,7</t>
+  </si>
+  <si>
+    <t>92,2</t>
+  </si>
+  <si>
+    <t>93,0</t>
+  </si>
+  <si>
+    <t>99,8</t>
+  </si>
+  <si>
+    <t>114,9</t>
+  </si>
+  <si>
+    <t>95,8</t>
+  </si>
+  <si>
+    <t>98,8</t>
+  </si>
+  <si>
+    <t>97,5</t>
+  </si>
+  <si>
+    <t>97,7</t>
+  </si>
+  <si>
+    <t>105,1</t>
+  </si>
+  <si>
+    <t>103,6</t>
+  </si>
+  <si>
+    <t>102,9</t>
+  </si>
+  <si>
+    <t>105,9</t>
+  </si>
+  <si>
+    <t>109,0</t>
+  </si>
+  <si>
+    <t>109,9</t>
+  </si>
+  <si>
+    <t>106,9</t>
+  </si>
+  <si>
+    <t>106,5</t>
+  </si>
+  <si>
+    <t>100,6</t>
+  </si>
+  <si>
+    <t>101,2</t>
+  </si>
+  <si>
+    <t>100,7</t>
+  </si>
+  <si>
+    <t>110,7</t>
+  </si>
+  <si>
+    <t>111,2</t>
+  </si>
+  <si>
+    <t>99,0</t>
+  </si>
+  <si>
+    <t>101,6</t>
+  </si>
+  <si>
+    <t>111,8</t>
+  </si>
+  <si>
+    <t>113,6</t>
+  </si>
+  <si>
+    <t>112,4</t>
+  </si>
+  <si>
+    <t>110,2</t>
+  </si>
+  <si>
+    <t>90,7</t>
+  </si>
+  <si>
+    <t>105,0</t>
+  </si>
+  <si>
+    <t>106,2</t>
+  </si>
+  <si>
+    <t>108,1</t>
+  </si>
+  <si>
+    <t>106,8</t>
+  </si>
+  <si>
+    <t>112,3</t>
+  </si>
+  <si>
+    <t>110,1</t>
+  </si>
+  <si>
+    <t>108,2</t>
+  </si>
+  <si>
+    <t>92,6</t>
+  </si>
+  <si>
+    <t>109,8</t>
+  </si>
+  <si>
+    <t>103,4</t>
+  </si>
+  <si>
+    <t>111,0</t>
+  </si>
+  <si>
+    <t>97,4</t>
+  </si>
+  <si>
+    <t>112,7</t>
+  </si>
+  <si>
+    <t>100,8</t>
+  </si>
+  <si>
+    <t>100,3</t>
+  </si>
+  <si>
+    <t>104,9</t>
+  </si>
+  <si>
+    <t>114,1</t>
+  </si>
+  <si>
+    <t>112,5</t>
+  </si>
+  <si>
+    <t>118,2</t>
+  </si>
+  <si>
+    <t>111,9</t>
+  </si>
+  <si>
+    <t>120,4</t>
+  </si>
+  <si>
+    <t>116,8</t>
+  </si>
+  <si>
+    <t>103,2</t>
+  </si>
+  <si>
+    <t>93,7</t>
+  </si>
+  <si>
+    <t>101,7</t>
+  </si>
+  <si>
+    <t>103,0</t>
+  </si>
+  <si>
+    <t>99,9</t>
+  </si>
+  <si>
+    <t>96,0</t>
+  </si>
+  <si>
+    <t>93,6</t>
+  </si>
+  <si>
+    <t>92,0</t>
+  </si>
+  <si>
+    <t>94,9</t>
+  </si>
+  <si>
+    <t>109,7</t>
+  </si>
+  <si>
+    <t>105,2</t>
+  </si>
+  <si>
+    <t>102,5</t>
+  </si>
+  <si>
+    <t>97,1</t>
+  </si>
+  <si>
+    <t>100,1</t>
+  </si>
+  <si>
+    <t>100,4</t>
+  </si>
+  <si>
+    <t>96,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +519,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD6ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,12 +615,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -225,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,23 +1065,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -499,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -534,7 +1162,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -569,7 +1197,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -604,7 +1232,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -639,7 +1267,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -674,7 +1302,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -709,7 +1337,7 @@
         <v>108.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -744,7 +1372,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -779,7 +1407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -814,7 +1442,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -849,7 +1477,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -884,7 +1512,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -919,7 +1547,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -954,7 +1582,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +1617,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1652,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1687,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1722,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1757,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1792,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1199,7 +1827,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1234,719 +1862,834 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="20"/>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="G28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="49.5" thickBot="1">
+      <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28">
-        <v>104.3</v>
-      </c>
-      <c r="C28">
-        <v>101.3</v>
-      </c>
-      <c r="D28">
-        <v>103.7</v>
-      </c>
-      <c r="E28">
-        <v>104.3</v>
-      </c>
-      <c r="F28">
-        <v>104.1</v>
-      </c>
-      <c r="G28">
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="12">
+        <v>105</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="12">
+        <v>104</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="9">
+        <v>108</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H28">
-        <v>104.8</v>
-      </c>
-      <c r="I28">
-        <v>103.5</v>
-      </c>
-      <c r="J28">
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="37.5" thickBot="1">
+      <c r="A40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A43" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
-        <v>94.1</v>
-      </c>
-      <c r="D29">
-        <v>96.9</v>
-      </c>
-      <c r="E29">
-        <v>98.5</v>
-      </c>
-      <c r="F29">
-        <v>98.5</v>
-      </c>
-      <c r="G29">
-        <v>102.1</v>
-      </c>
-      <c r="H29">
-        <v>104.1</v>
-      </c>
-      <c r="I29">
-        <v>102.7</v>
-      </c>
-      <c r="J29">
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>109.4</v>
-      </c>
-      <c r="C30">
-        <v>102.8</v>
-      </c>
-      <c r="D30">
-        <v>104.7</v>
-      </c>
-      <c r="E30">
-        <v>105.4</v>
-      </c>
-      <c r="F30">
-        <v>105</v>
-      </c>
-      <c r="G30">
-        <v>106.6</v>
-      </c>
-      <c r="H30">
-        <v>101</v>
-      </c>
-      <c r="I30">
-        <v>98.2</v>
-      </c>
-      <c r="J30">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>99.7</v>
-      </c>
-      <c r="C31">
-        <v>106.3</v>
-      </c>
-      <c r="D31">
-        <v>107.3</v>
-      </c>
-      <c r="E31">
-        <v>107.2</v>
-      </c>
-      <c r="F31">
-        <v>107.6</v>
-      </c>
-      <c r="G31">
-        <v>104.3</v>
-      </c>
-      <c r="H31">
-        <v>103.5</v>
-      </c>
-      <c r="I31">
-        <v>102.1</v>
-      </c>
-      <c r="J31">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>102</v>
-      </c>
-      <c r="C32">
-        <v>103.9</v>
-      </c>
-      <c r="D32">
-        <v>109.2</v>
-      </c>
-      <c r="E32">
-        <v>105.4</v>
-      </c>
-      <c r="F32">
-        <v>104</v>
-      </c>
-      <c r="G32">
-        <v>108.3</v>
-      </c>
-      <c r="H32">
-        <v>102.6</v>
-      </c>
-      <c r="I32">
-        <v>100.2</v>
-      </c>
-      <c r="J32">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>94.8</v>
-      </c>
-      <c r="C33">
-        <v>109.5</v>
-      </c>
-      <c r="D33">
-        <v>104.5</v>
-      </c>
-      <c r="E33">
-        <v>107.9</v>
-      </c>
-      <c r="F33">
-        <v>108</v>
-      </c>
-      <c r="G33">
-        <v>104.7</v>
-      </c>
-      <c r="H33">
-        <v>106.4</v>
-      </c>
-      <c r="I33">
+      <c r="C45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J33">
-        <v>107.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>98.3</v>
-      </c>
-      <c r="C34">
-        <v>105.4</v>
-      </c>
-      <c r="D34">
-        <v>105.7</v>
-      </c>
-      <c r="E34">
-        <v>105.6</v>
-      </c>
-      <c r="F34">
-        <v>105.5</v>
-      </c>
-      <c r="G34">
-        <v>103.8</v>
-      </c>
-      <c r="H34">
-        <v>102.8</v>
-      </c>
-      <c r="I34">
-        <v>101.3</v>
-      </c>
-      <c r="J34">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <v>107.4</v>
-      </c>
-      <c r="C35">
-        <v>108</v>
-      </c>
-      <c r="D35">
-        <v>107.3</v>
-      </c>
-      <c r="E35">
-        <v>104.7</v>
-      </c>
-      <c r="F35">
-        <v>103.8</v>
-      </c>
-      <c r="G35">
-        <v>104.6</v>
-      </c>
-      <c r="H35">
-        <v>103.9</v>
-      </c>
-      <c r="I35">
-        <v>101.3</v>
-      </c>
-      <c r="J35">
-        <v>101.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>96.9</v>
-      </c>
-      <c r="D36">
-        <v>99.3</v>
-      </c>
-      <c r="E36">
-        <v>101.1</v>
-      </c>
-      <c r="F36">
-        <v>102.1</v>
-      </c>
-      <c r="G36">
-        <v>96.7</v>
-      </c>
-      <c r="H36">
-        <v>98.7</v>
-      </c>
-      <c r="I36">
-        <v>92.2</v>
-      </c>
-      <c r="J36">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>114.9</v>
-      </c>
-      <c r="C37">
-        <v>95.8</v>
-      </c>
-      <c r="D37">
-        <v>98.8</v>
-      </c>
-      <c r="E37">
-        <v>97.5</v>
-      </c>
-      <c r="F37">
-        <v>97.7</v>
-      </c>
-      <c r="G37">
-        <v>106.6</v>
-      </c>
-      <c r="H37">
-        <v>105.1</v>
-      </c>
-      <c r="I37">
-        <v>103.6</v>
-      </c>
-      <c r="J37">
-        <v>102.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <v>107.3</v>
-      </c>
-      <c r="C38">
-        <v>105.9</v>
-      </c>
-      <c r="D38">
-        <v>109</v>
-      </c>
-      <c r="E38">
-        <v>109.9</v>
-      </c>
-      <c r="F38">
-        <v>106.9</v>
-      </c>
-      <c r="G38">
-        <v>106.5</v>
-      </c>
-      <c r="H38">
-        <v>106.4</v>
-      </c>
-      <c r="I38">
-        <v>103.8</v>
-      </c>
-      <c r="J38">
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39">
-        <v>103.8</v>
-      </c>
-      <c r="C39">
-        <v>98.4</v>
-      </c>
-      <c r="D39">
-        <v>100.6</v>
-      </c>
-      <c r="E39">
-        <v>101.2</v>
-      </c>
-      <c r="F39">
-        <v>100.7</v>
-      </c>
-      <c r="G39">
-        <v>110.7</v>
-      </c>
-      <c r="H39">
-        <v>111.2</v>
-      </c>
-      <c r="I39">
-        <v>107.4</v>
-      </c>
-      <c r="J39">
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <v>96.1</v>
-      </c>
-      <c r="C40">
-        <v>96.1</v>
-      </c>
-      <c r="D40">
-        <v>99</v>
-      </c>
-      <c r="E40">
-        <v>101.6</v>
-      </c>
-      <c r="F40">
-        <v>101.3</v>
-      </c>
-      <c r="G40">
-        <v>111.8</v>
-      </c>
-      <c r="H40">
-        <v>113.6</v>
-      </c>
-      <c r="I40">
-        <v>112.4</v>
-      </c>
-      <c r="J40">
-        <v>110.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>105</v>
-      </c>
-      <c r="C41">
-        <v>106.2</v>
-      </c>
-      <c r="D41">
-        <v>108.1</v>
-      </c>
-      <c r="E41">
-        <v>107.6</v>
-      </c>
-      <c r="F41">
-        <v>106.8</v>
-      </c>
-      <c r="G41">
-        <v>112.3</v>
-      </c>
-      <c r="H41">
-        <v>110.1</v>
-      </c>
-      <c r="I41">
-        <v>108.2</v>
-      </c>
-      <c r="J41">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42">
-        <v>109.8</v>
-      </c>
-      <c r="C42">
-        <v>103.4</v>
-      </c>
-      <c r="D42">
-        <v>104.8</v>
-      </c>
-      <c r="E42">
-        <v>105.7</v>
-      </c>
-      <c r="F42">
-        <v>106.4</v>
-      </c>
-      <c r="G42">
-        <v>111</v>
-      </c>
-      <c r="H42">
-        <v>107.2</v>
-      </c>
-      <c r="I42">
-        <v>105.5</v>
-      </c>
-      <c r="J42">
-        <v>103.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43">
-        <v>112.7</v>
-      </c>
-      <c r="C43">
-        <v>100.8</v>
-      </c>
-      <c r="D43">
-        <v>102</v>
-      </c>
-      <c r="E43">
-        <v>101.5</v>
-      </c>
-      <c r="F43">
-        <v>100.6</v>
-      </c>
-      <c r="G43">
-        <v>106.6</v>
-      </c>
-      <c r="H43">
-        <v>103.4</v>
-      </c>
-      <c r="I43">
-        <v>101</v>
-      </c>
-      <c r="J43">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>104.9</v>
-      </c>
-      <c r="D44">
-        <v>114.9</v>
-      </c>
-      <c r="E44">
-        <v>114.1</v>
-      </c>
-      <c r="F44">
-        <v>112.5</v>
-      </c>
-      <c r="G44">
-        <v>118.2</v>
-      </c>
-      <c r="H44">
-        <v>111.9</v>
-      </c>
-      <c r="I44">
-        <v>120.4</v>
-      </c>
-      <c r="J44">
-        <v>116.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45">
-        <v>106.9</v>
-      </c>
-      <c r="C45">
-        <v>93.7</v>
-      </c>
-      <c r="D45">
-        <v>101.7</v>
-      </c>
-      <c r="E45">
-        <v>101.5</v>
-      </c>
-      <c r="F45">
-        <v>103.5</v>
-      </c>
-      <c r="G45">
-        <v>104.5</v>
-      </c>
-      <c r="H45">
-        <v>106.6</v>
-      </c>
-      <c r="I45">
-        <v>104.1</v>
-      </c>
-      <c r="J45">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46">
-        <v>99.7</v>
-      </c>
-      <c r="C46">
-        <v>99.3</v>
-      </c>
-      <c r="D46">
-        <v>102.9</v>
-      </c>
-      <c r="E46">
-        <v>103</v>
-      </c>
-      <c r="F46">
-        <v>103.5</v>
-      </c>
-      <c r="G46">
-        <v>99.9</v>
-      </c>
-      <c r="H46">
-        <v>96</v>
-      </c>
-      <c r="I46">
-        <v>93.6</v>
-      </c>
-      <c r="J46">
+      <c r="E47" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="25.5" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="37.5" thickBot="1">
+      <c r="A49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47">
-        <v>102.6</v>
-      </c>
-      <c r="C47">
-        <v>96</v>
-      </c>
-      <c r="D47">
-        <v>100.7</v>
-      </c>
-      <c r="E47">
-        <v>102.1</v>
-      </c>
-      <c r="F47">
-        <v>101.3</v>
-      </c>
-      <c r="G47">
-        <v>109.7</v>
-      </c>
-      <c r="H47">
-        <v>105.2</v>
-      </c>
-      <c r="I47">
-        <v>103.4</v>
-      </c>
-      <c r="J47">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48">
-        <v>101.2</v>
-      </c>
-      <c r="C48">
-        <v>99.7</v>
-      </c>
-      <c r="D48">
-        <v>103</v>
-      </c>
-      <c r="E48">
-        <v>101.5</v>
-      </c>
-      <c r="F48">
-        <v>100.1</v>
-      </c>
-      <c r="G48">
-        <v>104.6</v>
-      </c>
-      <c r="H48">
-        <v>100.4</v>
-      </c>
-      <c r="I48">
-        <v>98.3</v>
-      </c>
-      <c r="J48">
-        <v>96.9</v>
+      <c r="F49" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K27:K28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
